--- a/medicine/Pharmacie/Nycomed/Nycomed.xlsx
+++ b/medicine/Pharmacie/Nycomed/Nycomed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Nycomed est un groupe pharmaceutique suisse dont le siège social est à Zurich, en Suisse depuis 2007. Jusqu'en 2011, elle était dirigée par Håkan Björklund. Elle compte plus de 12 000 employés dans le monde et a réalisé un chiffre d'affaires d'environ 5 milliards de francs suisses en 2009[1]. La société est particulièrement active sur le marché russe et dans les pays de l’ex-Union soviétique.
+Nycomed est un groupe pharmaceutique suisse dont le siège social est à Zurich, en Suisse depuis 2007. Jusqu'en 2011, elle était dirigée par Håkan Björklund. Elle compte plus de 12 000 employés dans le monde et a réalisé un chiffre d'affaires d'environ 5 milliards de francs suisses en 2009. La société est particulièrement active sur le marché russe et dans les pays de l’ex-Union soviétique.
 Son principal actionnaire avant son rachat était le fonds d'investissement scandinave Nordic Capital qui déterminait 42,7 % des actions.
 </t>
         </is>
@@ -513,13 +525,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La compagnie a commencé ses activités comme représentante de firmes étrangères en Norvège en 1874 et portait, jusqu’en 1986, le nom de son pharmacien : M. Nyegaard &amp; Co. En 2013, la société produisait des médicaments génériques.
 En 2008, Nycomed a racheté la société Bradley active dans le domaine de la dermatologie.
-En 2011, après quelques mois de négociations[2]
+En 2011, après quelques mois de négociations
 ,
-[3]
 ,  Nycomed a été racheté par Takeda. Un nouveau dirigeant est alors nommé : Dr Frank Morich, MD, PhD.
 </t>
         </is>
@@ -549,7 +562,9 @@
           <t>Produits commercialisés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Actovegin</t>
         </is>
